--- a/AdatbazisTerv.xlsx
+++ b/AdatbazisTerv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\adadbazis_13d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabger422\Documents\GitHub\RaboczkiGergo_konyvtar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBAA91-8FA8-4272-8BF7-9DA367D37EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A158C-5C68-4513-A4B2-7BDB010CB124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{518251DE-308D-4C12-B4B6-F0958557F985}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>konyvek</t>
   </si>
@@ -90,33 +90,67 @@
     <t>2.nf</t>
   </si>
   <si>
-    <t>kolcsonzo_id  FK</t>
-  </si>
-  <si>
-    <t>konyv_id  FK</t>
-  </si>
-  <si>
     <t>3.nf</t>
   </si>
   <si>
-    <t>konyv_id PK</t>
-  </si>
-  <si>
-    <t>olvaso_id PK</t>
-  </si>
-  <si>
-    <t>kolcsonzo_id FK</t>
-  </si>
-  <si>
-    <t>konyv_id FK</t>
+    <t>táblanév: félkövér</t>
+  </si>
+  <si>
+    <t>primary key: dőlt, aláhúzott</t>
+  </si>
+  <si>
+    <t>foreign key: dőlt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kolcsonzo_id  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">konyv_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">olvaso_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kolcsonzo_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">konyv_id  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,8 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -461,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3423B290-7096-435B-82F6-9F577DA8C4C5}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,12 +511,12 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -504,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -515,13 +552,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -534,8 +571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -545,8 +582,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -555,17 +592,28 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -578,11 +626,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -592,28 +640,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -626,11 +674,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -643,17 +691,18 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>